--- a/column_mapping.xlsx
+++ b/column_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\nfl_draft_predictions\2022_mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\data_engineering_exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2177AA48-9D77-4D5F-9DB6-41DAC61AE6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B26218-5C5D-4AC0-BA92-E3ADF71133A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40860" yWindow="3225" windowWidth="28800" windowHeight="10245" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
   <dimension ref="A2:AE57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I19"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1871E3F6-6941-42D4-9018-B48DE0E578EE}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,11 +1842,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECBB44E-EF7E-4473-B882-76EE99AECFEB}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
